--- a/list.xlsx
+++ b/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyang/Documents/MXH/one-hundred/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F9C3FE-3E92-FE4F-999A-70DCFD399E6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED4DF5A-80B2-3A4F-98DA-679E08DE4AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="860" windowWidth="18200" windowHeight="16520" xr2:uid="{30241CD2-800B-A64F-A3B3-4FF7FDCAA594}"/>
   </bookViews>
@@ -306,21 +306,6 @@
   </si>
   <si>
     <r>
-      <t>22.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>看过高杨提过的剧集或电影</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>23.</t>
     </r>
     <r>
@@ -520,21 +505,6 @@
         <charset val="134"/>
       </rPr>
       <t>现场见证首场长腿</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>34.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用女友视角图骗过人</t>
     </r>
   </si>
   <si>
@@ -1265,6 +1235,83 @@
   </si>
   <si>
     <r>
+      <t>11.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>去过声巡有高杨的场次</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现场听过P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>erTeCiSaro</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>62.跟着参加过公益</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>34.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用女友视角图骗过人</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看过高杨提过的剧集或电影</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>10.</t>
     </r>
     <r>
@@ -1275,72 +1322,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>在杭州末场与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>Jervis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高作别</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>去过声巡有高杨的场次</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>现场听过P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>erTeCiSaro</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>62.跟着参加过公益</t>
+      <t>在杭州末场与高叔叔作别</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1763,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306F6267-8CA4-1F4C-AFF4-4E650D6C0013}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1785,13 +1768,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1805,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1816,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1824,10 +1807,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1835,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1846,7 +1829,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1884,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1892,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1900,7 +1883,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1980,7 +1963,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1988,7 +1971,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1996,7 +1979,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2004,7 +1987,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2012,7 +1995,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2020,7 +2003,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2028,7 +2011,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2036,7 +2019,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2044,7 +2027,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2052,7 +2035,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2060,7 +2043,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2068,7 +2051,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2076,7 +2059,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2084,7 +2067,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2092,7 +2075,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2100,7 +2083,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2108,7 +2091,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2116,7 +2099,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2124,7 +2107,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2132,7 +2115,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2140,7 +2123,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2148,7 +2131,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2156,7 +2139,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2164,7 +2147,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2172,7 +2155,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2180,7 +2163,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2188,7 +2171,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2196,7 +2179,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2204,7 +2187,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2212,7 +2195,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2220,7 +2203,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2228,7 +2211,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2236,7 +2219,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2244,7 +2227,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2252,7 +2235,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2260,7 +2243,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2268,7 +2251,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2276,7 +2259,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2284,7 +2267,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2292,7 +2275,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2300,7 +2283,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2308,7 +2291,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2316,7 +2299,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2324,7 +2307,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2332,7 +2315,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2340,7 +2323,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2348,7 +2331,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2356,7 +2339,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2364,7 +2347,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2372,7 +2355,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="3:4">
